--- a/biology/Botanique/Arabidopsis/Arabidopsis.xlsx
+++ b/biology/Botanique/Arabidopsis/Arabidopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arabidopsis est un genre de plantes herbacées de la famille des Brassicaceae. Ce sont de petites plantes ressemblant au chou et à la moutarde. Ce genre est d'un grand intérêt puisqu'il contient Arabidopsis thaliana, l’arabette de Thalius ou arabette des dames, un organisme modèle utilisé en biologie végétale et biologie fondamentale.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Latin "arabis", de Arabia, Arabie : plantes croissant souvent dans des terrains secs et sablonneux, comme les déserts d'Arabie." (Flore de Hippolyte Coste)
 Grec "opsis", aspect : port d'un arabis" (Flore de Paul Fournier)
@@ -543,7 +557,9 @@
           <t>Reclassification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, le genre Arabidopsis présente neuf espèces et huit sous-espèces supplémentaires reconnues. Cette classification est assez récente et est fondée sur les études phylogéniques morphologiques et moléculaires de O'Kane &amp; Al-Shehbaz (1997, 2003).
 Leurs analyses confirment que les espèces auparavant classées dans le genre Arabidopsis étaient polyphylétiques. La reclassification la plus récente repositionne deux espèces jadis placées dans les genres Cardaminopsis et Hylandra et trois espèces d’Arabis dans le genre Arabidopsis, mais exclut 50 espèces qui ont été reclassées dans les nouveaux genres :
@@ -578,7 +594,9 @@
           <t>Liste des espèces et variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Arabidopsis arenosa (L.) Lawalrée, 1960
 Arabidopsis arenosa subsp. Arenosa
@@ -638,7 +656,9 @@
           <t>Cytogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les analyses cytogénétiques ont montré que le nombre haploïde de chromosomes est variable et peut être n = 5, 8, 13, ou 16.
 Arabidopsis thaliana ; n=5 et la séquence complète d'ADN de cette espèce est connue depuis 2001.
@@ -674,7 +694,9 @@
           <t>Espèces reclassifiées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les espèces suivantes jadis placées dans le genre Arabidopsis ne sont actuellement plus considérées comme appartenant à ce genre :
 A. bactriana =
@@ -754,7 +776,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">O'Kane Jr, S. L., &amp; Al-Shehbaz, I. A. (1997). A synopsis of Arabidopsis (Brassicaceae): Novon 7: 323–327.
 Al-Shehbaz, I. A., O'Kane, Steve L. (2002). Taxonomy and Phylogeny of Arabidopsis (Brassicaceae). The Arabidopsis Book: 1-22. online version.
